--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BC/20/seed5/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BC/20/seed5/result_data_KNN.xlsx
@@ -485,7 +485,7 @@
         <v>4.03</v>
       </c>
       <c r="C3" t="n">
-        <v>-13.49</v>
+        <v>-13.543</v>
       </c>
       <c r="D3" t="n">
         <v>-8.949999999999999</v>
@@ -502,7 +502,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>-12.372</v>
+        <v>-12.62</v>
       </c>
       <c r="D4" t="n">
         <v>-8.23</v>
@@ -618,7 +618,7 @@
         <v>-21.2</v>
       </c>
       <c r="B11" t="n">
-        <v>7.704000000000001</v>
+        <v>6.598000000000001</v>
       </c>
       <c r="C11" t="n">
         <v>-10.8</v>
@@ -635,7 +635,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>4.858</v>
+        <v>5.043</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -672,7 +672,7 @@
         <v>4.04</v>
       </c>
       <c r="C14" t="n">
-        <v>-12.778</v>
+        <v>-12.21</v>
       </c>
       <c r="D14" t="n">
         <v>-7.43</v>
@@ -686,7 +686,7 @@
         <v>-22.78</v>
       </c>
       <c r="B15" t="n">
-        <v>5.252000000000001</v>
+        <v>5.381</v>
       </c>
       <c r="C15" t="n">
         <v>-13.12</v>
@@ -876,7 +876,7 @@
         <v>6.56</v>
       </c>
       <c r="C26" t="n">
-        <v>-12.266</v>
+        <v>-13.04</v>
       </c>
       <c r="D26" t="n">
         <v>-9.31</v>
@@ -890,7 +890,7 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>5.738</v>
+        <v>6.226000000000001</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -907,7 +907,7 @@
         <v>-21.74</v>
       </c>
       <c r="B28" t="n">
-        <v>5.556</v>
+        <v>6.215000000000001</v>
       </c>
       <c r="C28" t="n">
         <v>-11.8</v>
@@ -958,10 +958,10 @@
         <v>-21.76</v>
       </c>
       <c r="B31" t="n">
-        <v>4.258</v>
+        <v>5.258</v>
       </c>
       <c r="C31" t="n">
-        <v>-13.576</v>
+        <v>-12.562</v>
       </c>
       <c r="D31" t="n">
         <v>-9.77</v>
@@ -975,7 +975,7 @@
         <v>-20.86</v>
       </c>
       <c r="B32" t="n">
-        <v>7.343999999999999</v>
+        <v>7.237</v>
       </c>
       <c r="C32" t="n">
         <v>-10.55</v>
@@ -1029,7 +1029,7 @@
         <v>10.18</v>
       </c>
       <c r="C35" t="n">
-        <v>-12.306</v>
+        <v>-12.654</v>
       </c>
       <c r="D35" t="n">
         <v>-9.9</v>
@@ -1043,7 +1043,7 @@
         <v>-18.53</v>
       </c>
       <c r="B36" t="n">
-        <v>9.74</v>
+        <v>8.995000000000001</v>
       </c>
       <c r="C36" t="n">
         <v>-10.09</v>
@@ -1063,7 +1063,7 @@
         <v>9.41</v>
       </c>
       <c r="C37" t="n">
-        <v>-13.606</v>
+        <v>-13.187</v>
       </c>
       <c r="D37" t="n">
         <v>-7.88</v>
@@ -1077,7 +1077,7 @@
         <v>-21.37</v>
       </c>
       <c r="B38" t="n">
-        <v>5.282</v>
+        <v>5.602000000000001</v>
       </c>
       <c r="C38" t="n">
         <v>-12.46</v>
@@ -1097,7 +1097,7 @@
         <v>9.35</v>
       </c>
       <c r="C39" t="n">
-        <v>-12.288</v>
+        <v>-12.746</v>
       </c>
       <c r="D39" t="n">
         <v>-8.93</v>
@@ -1114,7 +1114,7 @@
         <v>10.75</v>
       </c>
       <c r="C40" t="n">
-        <v>-12.718</v>
+        <v>-12.51</v>
       </c>
       <c r="D40" t="n">
         <v>-7.23</v>
@@ -1199,7 +1199,7 @@
         <v>5.73</v>
       </c>
       <c r="C45" t="n">
-        <v>-13.826</v>
+        <v>-12.776</v>
       </c>
       <c r="D45" t="n">
         <v>-7.87</v>
@@ -1213,7 +1213,7 @@
         <v>-22.54</v>
       </c>
       <c r="B46" t="n">
-        <v>5.360000000000001</v>
+        <v>6.569</v>
       </c>
       <c r="C46" t="n">
         <v>-11.47</v>
@@ -1318,7 +1318,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-10.968</v>
+        <v>-10.937</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1349,7 +1349,7 @@
         <v>-22.23</v>
       </c>
       <c r="B54" t="n">
-        <v>4.758</v>
+        <v>5.006</v>
       </c>
       <c r="C54" t="n">
         <v>-13.87</v>
@@ -1366,7 +1366,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>4.702</v>
+        <v>4.555</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1383,7 +1383,7 @@
         <v>-21.95</v>
       </c>
       <c r="B56" t="n">
-        <v>4.07</v>
+        <v>4.457000000000001</v>
       </c>
       <c r="C56" t="n">
         <v>-13.63</v>
@@ -1403,7 +1403,7 @@
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-13.376</v>
+        <v>-13.697</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1570,7 +1570,7 @@
         <v>-21.67</v>
       </c>
       <c r="B67" t="n">
-        <v>5.69</v>
+        <v>5.223999999999999</v>
       </c>
       <c r="C67" t="n">
         <v>-10.67</v>
@@ -1604,7 +1604,7 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.915999999999999</v>
+        <v>5.202</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1655,7 +1655,7 @@
         <v>-21.62</v>
       </c>
       <c r="B72" t="n">
-        <v>5.915999999999999</v>
+        <v>5.938</v>
       </c>
       <c r="C72" t="n">
         <v>-11.2</v>
@@ -1672,7 +1672,7 @@
         <v>-20.59</v>
       </c>
       <c r="B73" t="n">
-        <v>7.343999999999999</v>
+        <v>7.581999999999999</v>
       </c>
       <c r="C73" t="n">
         <v>-15.02</v>
@@ -1811,7 +1811,7 @@
         <v>3.85</v>
       </c>
       <c r="C81" t="n">
-        <v>-13.49</v>
+        <v>-13.319</v>
       </c>
       <c r="D81" t="n">
         <v>-8.390000000000001</v>
@@ -1842,10 +1842,10 @@
         <v>-22.74</v>
       </c>
       <c r="B83" t="n">
-        <v>4.884</v>
+        <v>5.315</v>
       </c>
       <c r="C83" t="n">
-        <v>-14.1</v>
+        <v>-14.127</v>
       </c>
       <c r="D83" t="n">
         <v>-7.67</v>
@@ -1893,7 +1893,7 @@
         <v>-22.27</v>
       </c>
       <c r="B86" t="n">
-        <v>4.856</v>
+        <v>4.94</v>
       </c>
       <c r="C86" t="n">
         <v>-14.09</v>
@@ -1978,7 +1978,7 @@
         <v>-21.49</v>
       </c>
       <c r="B91" t="n">
-        <v>6.830000000000001</v>
+        <v>6.109</v>
       </c>
       <c r="C91" t="n">
         <v>-10.09</v>
@@ -2012,7 +2012,7 @@
         <v>-22.29</v>
       </c>
       <c r="B93" t="n">
-        <v>6.218</v>
+        <v>5.616000000000001</v>
       </c>
       <c r="C93" t="n">
         <v>-11.3</v>
@@ -2114,7 +2114,7 @@
         <v>-21.4</v>
       </c>
       <c r="B99" t="n">
-        <v>5.351999999999999</v>
+        <v>5.718000000000001</v>
       </c>
       <c r="C99" t="n">
         <v>-15.77</v>
@@ -2134,7 +2134,7 @@
         <v>5.09</v>
       </c>
       <c r="C100" t="n">
-        <v>-13.288</v>
+        <v>-13.144</v>
       </c>
       <c r="D100" t="n">
         <v>-7.71</v>
@@ -2168,7 +2168,7 @@
         <v>9.01</v>
       </c>
       <c r="C102" t="n">
-        <v>-12.702</v>
+        <v>-13.05</v>
       </c>
       <c r="D102" t="n">
         <v>-8.630000000000001</v>
